--- a/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 27,69</t>
+          <t>13,25; 27,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 29,45</t>
+          <t>14,02; 28,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,47; 37,04</t>
+          <t>20,49; 36,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,63; 51,27</t>
+          <t>31,14; 49,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 41,11</t>
+          <t>23,97; 40,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,63; 55,74</t>
+          <t>36,23; 57,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 51,12</t>
+          <t>32,46; 50,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,09; 59,96</t>
+          <t>46,61; 60,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,08</t>
+          <t>20,26; 31,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,38; 40,3</t>
+          <t>27,16; 40,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 40,85</t>
+          <t>28,98; 41,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,53; 53,58</t>
+          <t>41,89; 53,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 22,0</t>
+          <t>15,78; 21,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,72</t>
+          <t>23,01; 30,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 25,97</t>
+          <t>18,48; 25,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,88; 41,22</t>
+          <t>33,04; 41,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,78; 33,37</t>
+          <t>25,94; 33,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,93; 47,32</t>
+          <t>39,2; 47,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,01; 41,34</t>
+          <t>33,59; 41,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,12; 49,04</t>
+          <t>38,56; 48,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 26,64</t>
+          <t>21,72; 26,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,1; 37,69</t>
+          <t>32,08; 37,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 32,93</t>
+          <t>27,02; 32,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,58; 44,07</t>
+          <t>37,96; 44,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 22,61</t>
+          <t>17,38; 22,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,21; 26,76</t>
+          <t>21,32; 26,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 25,85</t>
+          <t>20,52; 26,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 31,29</t>
+          <t>22,84; 31,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,73; 37,3</t>
+          <t>30,92; 36,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,51; 41,23</t>
+          <t>34,97; 41,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,2; 40,68</t>
+          <t>34,22; 40,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,02; 47,37</t>
+          <t>42,06; 47,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,1; 29,14</t>
+          <t>25,04; 29,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,14; 33,18</t>
+          <t>29,03; 33,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,39</t>
+          <t>28,41; 32,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,26; 38,64</t>
+          <t>33,44; 38,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,06</t>
+          <t>17,09; 23,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,95</t>
+          <t>18,63; 24,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 25,21</t>
+          <t>19,07; 25,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 37,02</t>
+          <t>29,74; 37,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,51; 40,64</t>
+          <t>33,27; 40,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 38,33</t>
+          <t>30,81; 37,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,85</t>
+          <t>27,62; 34,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,35; 68,89</t>
+          <t>44,14; 69,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,06; 30,88</t>
+          <t>26,0; 30,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,5</t>
+          <t>25,8; 30,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,21; 29,04</t>
+          <t>24,42; 29,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,45; 55,89</t>
+          <t>38,53; 56,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,76</t>
+          <t>17,84; 22,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,81</t>
+          <t>23,03; 28,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,58</t>
+          <t>23,76; 29,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,65; 37,98</t>
+          <t>31,82; 38,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,34; 36,06</t>
+          <t>30,2; 35,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,02; 42,2</t>
+          <t>36,27; 42,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,32; 40,85</t>
+          <t>34,37; 40,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,62; 50,91</t>
+          <t>44,86; 50,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,97; 28,79</t>
+          <t>24,98; 28,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,69; 35,12</t>
+          <t>30,81; 34,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,11; 34,38</t>
+          <t>30,04; 34,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,77; 44,16</t>
+          <t>39,67; 44,18</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,5; 21,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,9; 25,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,48; 25,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,72; 34,72</t>
+          <t>30,92; 34,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,84; 35,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,07; 40,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,37; 37,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 53,21</t>
+          <t>45,43; 52,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,55; 27,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,55; 32,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>29,05; 31,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,04; 43,55</t>
+          <t>39,14; 44,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 27,17</t>
+          <t>13,49; 29,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 28,85</t>
+          <t>14,15; 28,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 36,98</t>
+          <t>19,73; 37,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 40,18</t>
+          <t>23,66; 39,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,23; 57,24</t>
+          <t>35,7; 56,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 50,84</t>
+          <t>32,44; 50,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 31,8</t>
+          <t>20,75; 31,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,16; 40,55</t>
+          <t>27,09; 39,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 41,83</t>
+          <t>29,02; 41,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 21,89</t>
+          <t>15,72; 21,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 30,53</t>
+          <t>23,02; 31,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 25,59</t>
+          <t>18,8; 25,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 33,67</t>
+          <t>25,52; 33,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,2; 47,68</t>
+          <t>39,15; 47,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 41,65</t>
+          <t>33,59; 41,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,7</t>
+          <t>21,49; 26,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,08; 37,66</t>
+          <t>32,05; 37,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,02; 32,41</t>
+          <t>27,21; 32,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,49</t>
+          <t>17,16; 22,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,32; 26,89</t>
+          <t>21,27; 26,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 26,04</t>
+          <t>20,64; 26,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 36,85</t>
+          <t>31,11; 37,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,97; 41,49</t>
+          <t>35,03; 41,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,22; 40,52</t>
+          <t>34,23; 40,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 29,07</t>
+          <t>25,02; 29,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 33,3</t>
+          <t>28,78; 33,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 32,44</t>
+          <t>28,14; 32,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,05</t>
+          <t>17,0; 23,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 24,83</t>
+          <t>18,52; 24,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 25,45</t>
+          <t>19,13; 25,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,27; 40,74</t>
+          <t>33,58; 41,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,95</t>
+          <t>31,01; 38,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 34,66</t>
+          <t>27,64; 34,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 30,99</t>
+          <t>26,25; 31,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,53</t>
+          <t>25,57; 30,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,04</t>
+          <t>24,34; 28,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,68</t>
+          <t>17,84; 22,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 28,75</t>
+          <t>23,12; 28,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,76; 29,4</t>
+          <t>23,92; 29,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,98</t>
+          <t>30,32; 36,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,27; 42,3</t>
+          <t>35,93; 42,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,37; 40,77</t>
+          <t>34,14; 40,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,98; 28,88</t>
+          <t>25,13; 28,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,81; 34,87</t>
+          <t>30,37; 35,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,04; 34,52</t>
+          <t>29,97; 34,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 21,21</t>
+          <t>18,53; 21,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,9; 25,93</t>
+          <t>22,79; 26,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,49</t>
+          <t>22,53; 25,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,2</t>
+          <t>31,79; 35,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,6</t>
+          <t>37,13; 40,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,72</t>
+          <t>34,37; 37,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,55; 27,84</t>
+          <t>25,72; 27,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,55; 32,86</t>
+          <t>30,43; 32,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,05; 31,35</t>
+          <t>29,04; 31,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 29,32</t>
+          <t>12,58; 27,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 28,95</t>
+          <t>14,85; 29,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 37,14</t>
+          <t>20,47; 37,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 49,74</t>
+          <t>31,63; 51,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 39,96</t>
+          <t>24,47; 41,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,7; 56,06</t>
+          <t>36,63; 55,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,44; 50,78</t>
+          <t>33,0; 51,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,61; 60,12</t>
+          <t>46,09; 59,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,75; 31,29</t>
+          <t>20,56; 32,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,09; 39,29</t>
+          <t>27,38; 40,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 41,69</t>
+          <t>28,31; 40,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,89; 53,36</t>
+          <t>41,53; 53,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 21,85</t>
+          <t>15,78; 22,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 31,05</t>
+          <t>22,79; 30,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,8; 25,77</t>
+          <t>18,67; 25,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 41,23</t>
+          <t>32,88; 41,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 33,57</t>
+          <t>25,78; 33,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,15; 47,49</t>
+          <t>38,93; 47,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 41,97</t>
+          <t>33,01; 41,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,56; 48,98</t>
+          <t>39,12; 49,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 26,41</t>
+          <t>21,65; 26,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 37,67</t>
+          <t>32,1; 37,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 32,54</t>
+          <t>27,37; 32,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,96; 44,06</t>
+          <t>37,58; 44,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 22,61</t>
+          <t>17,49; 22,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 26,84</t>
+          <t>21,21; 26,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 26,04</t>
+          <t>20,66; 25,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 31,41</t>
+          <t>23,41; 31,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,11; 37,25</t>
+          <t>30,73; 37,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,03; 41,33</t>
+          <t>34,51; 41,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,31</t>
+          <t>34,2; 40,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,06; 47,61</t>
+          <t>42,02; 47,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,02; 29,17</t>
+          <t>25,1; 29,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 33,07</t>
+          <t>29,14; 33,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,14; 32,47</t>
+          <t>28,27; 32,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,44; 38,65</t>
+          <t>33,26; 38,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,13</t>
+          <t>17,0; 23,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,77</t>
+          <t>18,43; 24,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 25,18</t>
+          <t>18,98; 25,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 37,08</t>
+          <t>29,54; 37,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 41,04</t>
+          <t>33,51; 40,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,01; 38,26</t>
+          <t>30,9; 38,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,64; 34,7</t>
+          <t>27,83; 34,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,14; 69,26</t>
+          <t>44,35; 68,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 31,15</t>
+          <t>26,06; 30,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 30,29</t>
+          <t>25,6; 30,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 28,75</t>
+          <t>24,21; 29,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,53; 56,22</t>
+          <t>38,45; 55,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,66</t>
+          <t>17,78; 22,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,76</t>
+          <t>23,0; 28,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,92; 29,57</t>
+          <t>23,85; 29,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,82; 38,17</t>
+          <t>31,65; 37,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 36,21</t>
+          <t>30,34; 36,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,93; 42,13</t>
+          <t>36,02; 42,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,14; 40,4</t>
+          <t>34,32; 40,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,86; 50,83</t>
+          <t>44,62; 50,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,13; 28,95</t>
+          <t>24,97; 28,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,37; 35,05</t>
+          <t>30,69; 35,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,4</t>
+          <t>30,11; 34,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,67; 44,18</t>
+          <t>39,77; 44,16</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 21,24</t>
+          <t>18,38; 21,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,01</t>
+          <t>22,79; 25,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,53; 25,48</t>
+          <t>22,38; 25,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,68</t>
+          <t>30,72; 34,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,79; 35,09</t>
+          <t>31,92; 35,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,13; 40,36</t>
+          <t>37,14; 40,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,76</t>
+          <t>34,38; 37,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,43; 52,48</t>
+          <t>45,5; 53,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,75</t>
+          <t>25,72; 27,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,43; 32,74</t>
+          <t>30,53; 32,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,04; 31,24</t>
+          <t>28,96; 31,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,14; 44,2</t>
+          <t>39,04; 43,55</t>
         </is>
       </c>
     </row>
